--- a/biology/Médecine/Progestatif_micro-dosé/Progestatif_micro-dosé.xlsx
+++ b/biology/Médecine/Progestatif_micro-dosé/Progestatif_micro-dosé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Progestatif_micro-dos%C3%A9</t>
+          <t>Progestatif_micro-dosé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un progestatif micro-dosé, appelé aussi « microprogestatif » est un dérivé norstéroïde qui agit par la modification de la glaire cervicale et un effet endométrial qui empêche la nidation. Parce qu'il ne bloque pas l’ovulation, le microprogestatif est un facteur de risque de grossesse extra-utérine. C’est une bonne alternative à la pilule œstroprogestative en cas de contre-indication à celle-ci. Les effets indésirables sont des métrorragies ou une aménorrhée.
 </t>
